--- a/2.lap-trinh-huong-doi-tuong/9.Xay-dung-Class-Fraction .xlsx
+++ b/2.lap-trinh-huong-doi-tuong/9.Xay-dung-Class-Fraction .xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\2.lap-trinh-huong-doi-tuong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C3A890-DAC6-4627-8BD0-39F6277C8FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E3A19B-7789-4112-BAF3-A7771A6D71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="540" windowWidth="23970" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="540" windowWidth="23970" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
     <sheet name="UCLN" sheetId="2" r:id="rId2"/>
     <sheet name="CheckNormalize" sheetId="3" r:id="rId3"/>
+    <sheet name="Normalize" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="175">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -2087,6 +2088,21 @@
   </si>
   <si>
     <t>        else System.out.println(fractionB.print() + " Khong o dang toi gian");</t>
+  </si>
+  <si>
+    <t>        int ucln    = this.UCLN(this.getNumerator(), this.getDenominator());</t>
+  </si>
+  <si>
+    <t>        if(ucln &gt; 1){</t>
+  </si>
+  <si>
+    <t>            this.setNumerator(this.getNumerator() / ucln);</t>
+  </si>
+  <si>
+    <t>            this.setDenominator(this.getDenominator() / ucln);</t>
+  </si>
+  <si>
+    <t>        fractionA.normalize();</t>
   </si>
 </sst>
 </file>
@@ -2757,6 +2773,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>184338</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>122704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>7625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F76C9D4-FD71-E16C-9DC2-62158C9FA34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845485" y="22310351"/>
+          <a:ext cx="12041281" cy="2129273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>69471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFEF8CA-7F94-4F84-92AD-C1D2498208A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754743" y="64209386"/>
+          <a:ext cx="12104007" cy="2711978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503100</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E411E1-68E5-CD10-2A34-2F11F925F2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="67148075"/>
+          <a:ext cx="10809150" cy="5384800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7136,8 +7289,2366 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C621BF7A-C603-4E12-B283-6EA3E4D11DBA}">
   <dimension ref="A3:T315"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="1:20">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" s="4"/>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="4"/>
+      <c r="B68" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="J75" s="5"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="J79" s="5"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="5"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="J83" s="5"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="J87" s="5"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="5"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="J91" s="5"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="4"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="10"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="4"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="4"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="4"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="4"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="4"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="4"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" s="4"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" s="4"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" s="4"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" s="4"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" s="4"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105" s="4"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" s="4"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" s="4"/>
+      <c r="T107" s="5"/>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108" s="4"/>
+      <c r="T108" s="5"/>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109" s="4"/>
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="10"/>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="3"/>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114" s="4"/>
+      <c r="B114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="3"/>
+      <c r="T114" s="5"/>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="L115" s="5"/>
+      <c r="T115" s="5"/>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="L117" s="5"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L118" s="5"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L119" s="5"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L120" s="5"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L121" s="5"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L123" s="5"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="L124" s="5"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L126" s="5"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128" s="4"/>
+      <c r="B128" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="L128" s="5"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="A129" s="4"/>
+      <c r="B129" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="L129" s="5"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="1:20">
+      <c r="A130" s="4"/>
+      <c r="B130" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="L130" s="5"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" s="5"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="1:20">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="5"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="1:20">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L133" s="5"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L134" s="5"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L135" s="5"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L136" s="5"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="1:20">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L137" s="5"/>
+      <c r="T137" s="5"/>
+    </row>
+    <row r="138" spans="1:20">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="L138" s="5"/>
+      <c r="T138" s="5"/>
+    </row>
+    <row r="139" spans="1:20">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L139" s="5"/>
+      <c r="T139" s="5"/>
+    </row>
+    <row r="140" spans="1:20">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L140" s="5"/>
+      <c r="T140" s="5"/>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L141" s="5"/>
+      <c r="T141" s="5"/>
+    </row>
+    <row r="142" spans="1:20">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L142" s="5"/>
+      <c r="T142" s="5"/>
+    </row>
+    <row r="143" spans="1:20">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L143" s="5"/>
+      <c r="T143" s="5"/>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="5"/>
+      <c r="T144" s="5"/>
+    </row>
+    <row r="145" spans="1:20">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145" s="5"/>
+      <c r="T145" s="5"/>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L146" s="5"/>
+      <c r="T146" s="5"/>
+    </row>
+    <row r="147" spans="1:20">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L147" s="5"/>
+      <c r="T147" s="5"/>
+    </row>
+    <row r="148" spans="1:20">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L148" s="5"/>
+      <c r="T148" s="5"/>
+    </row>
+    <row r="149" spans="1:20">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="L149" s="5"/>
+      <c r="T149" s="5"/>
+    </row>
+    <row r="150" spans="1:20">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L150" s="5"/>
+      <c r="T150" s="5"/>
+    </row>
+    <row r="151" spans="1:20">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L151" s="5"/>
+      <c r="T151" s="5"/>
+    </row>
+    <row r="152" spans="1:20">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L152" s="5"/>
+      <c r="T152" s="5"/>
+    </row>
+    <row r="153" spans="1:20">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="L153" s="5"/>
+      <c r="T153" s="5"/>
+    </row>
+    <row r="154" spans="1:20">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L154" s="5"/>
+      <c r="T154" s="5"/>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L155" s="5"/>
+      <c r="T155" s="5"/>
+    </row>
+    <row r="156" spans="1:20">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L156" s="5"/>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="1:20">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L157" s="5"/>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="1:20">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L158" s="5"/>
+      <c r="T158" s="5"/>
+    </row>
+    <row r="159" spans="1:20">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L159" s="5"/>
+      <c r="T159" s="5"/>
+    </row>
+    <row r="160" spans="1:20">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L160" s="5"/>
+      <c r="T160" s="5"/>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L161" s="5"/>
+      <c r="T161" s="5"/>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L162" s="5"/>
+      <c r="T162" s="5"/>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" s="5"/>
+      <c r="T163" s="5"/>
+    </row>
+    <row r="164" spans="1:20">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L164" s="5"/>
+      <c r="T164" s="5"/>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L165" s="5"/>
+      <c r="T165" s="5"/>
+    </row>
+    <row r="166" spans="1:20">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="T166" s="5"/>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L167" s="5"/>
+      <c r="T167" s="5"/>
+    </row>
+    <row r="168" spans="1:20">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="T168" s="5"/>
+    </row>
+    <row r="169" spans="1:20">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="L169" s="5"/>
+      <c r="T169" s="5"/>
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L170" s="5"/>
+      <c r="T170" s="5"/>
+    </row>
+    <row r="171" spans="1:20">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L171" s="5"/>
+      <c r="T171" s="5"/>
+    </row>
+    <row r="172" spans="1:20">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L172" s="5"/>
+      <c r="T172" s="5"/>
+    </row>
+    <row r="173" spans="1:20">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" s="5"/>
+      <c r="T173" s="5"/>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L174" s="5"/>
+      <c r="T174" s="5"/>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L175" s="5"/>
+      <c r="T175" s="5"/>
+    </row>
+    <row r="176" spans="1:20">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L176" s="5"/>
+      <c r="T176" s="5"/>
+    </row>
+    <row r="177" spans="1:20">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L177" s="5"/>
+      <c r="T177" s="5"/>
+    </row>
+    <row r="178" spans="1:20">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L178" s="5"/>
+      <c r="T178" s="5"/>
+    </row>
+    <row r="179" spans="1:20">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="L179" s="5"/>
+      <c r="T179" s="5"/>
+    </row>
+    <row r="180" spans="1:20">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L180" s="5"/>
+      <c r="T180" s="5"/>
+    </row>
+    <row r="181" spans="1:20">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L181" s="5"/>
+      <c r="T181" s="5"/>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L182" s="5"/>
+      <c r="T182" s="5"/>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L183" s="5"/>
+      <c r="T183" s="5"/>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L184" s="5"/>
+      <c r="T184" s="5"/>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L185" s="5"/>
+      <c r="T185" s="5"/>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L186" s="5"/>
+      <c r="T186" s="5"/>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="5"/>
+      <c r="T187" s="5"/>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L188" s="5"/>
+      <c r="T188" s="5"/>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L189" s="5"/>
+      <c r="T189" s="5"/>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L190" s="5"/>
+      <c r="T190" s="5"/>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L191" s="5"/>
+      <c r="T191" s="5"/>
+    </row>
+    <row r="192" spans="1:20">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L192" s="5"/>
+      <c r="T192" s="5"/>
+    </row>
+    <row r="193" spans="1:20">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L193" s="5"/>
+      <c r="T193" s="5"/>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L194" s="5"/>
+      <c r="T194" s="5"/>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L195" s="5"/>
+      <c r="T195" s="5"/>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L196" s="5"/>
+      <c r="T196" s="5"/>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L197" s="5"/>
+      <c r="T197" s="5"/>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L198" s="5"/>
+      <c r="T198" s="5"/>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L199" s="5"/>
+      <c r="T199" s="5"/>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L200" s="5"/>
+      <c r="T200" s="5"/>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" s="5"/>
+      <c r="T201" s="5"/>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L202" s="5"/>
+      <c r="T202" s="5"/>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L203" s="5"/>
+      <c r="T203" s="5"/>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L204" s="5"/>
+      <c r="T204" s="5"/>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L205" s="5"/>
+      <c r="T205" s="5"/>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L206" s="5"/>
+      <c r="T206" s="5"/>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L207" s="5"/>
+      <c r="T207" s="5"/>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L208" s="5"/>
+      <c r="T208" s="5"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L209" s="5"/>
+      <c r="T209" s="5"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210" s="5"/>
+      <c r="T210" s="5"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L211" s="5"/>
+      <c r="T211" s="5"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L212" s="5"/>
+      <c r="T212" s="5"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L213" s="5"/>
+      <c r="T213" s="5"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L214" s="5"/>
+      <c r="T214" s="5"/>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L215" s="5"/>
+      <c r="T215" s="5"/>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L216" s="5"/>
+      <c r="T216" s="5"/>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L217" s="5"/>
+      <c r="T217" s="5"/>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L218" s="5"/>
+      <c r="T218" s="5"/>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L219" s="5"/>
+      <c r="T219" s="5"/>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L220" s="5"/>
+      <c r="T220" s="5"/>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L221" s="5"/>
+      <c r="T221" s="5"/>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="5"/>
+      <c r="T222" s="5"/>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L223" s="5"/>
+      <c r="T223" s="5"/>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L224" s="5"/>
+      <c r="T224" s="5"/>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L225" s="5"/>
+      <c r="T225" s="5"/>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L226" s="5"/>
+      <c r="T226" s="5"/>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L227" s="5"/>
+      <c r="T227" s="5"/>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L228" s="5"/>
+      <c r="T228" s="5"/>
+    </row>
+    <row r="229" spans="1:20">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L229" s="5"/>
+      <c r="T229" s="5"/>
+    </row>
+    <row r="230" spans="1:20">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L230" s="5"/>
+      <c r="T230" s="5"/>
+    </row>
+    <row r="231" spans="1:20">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L231" s="5"/>
+      <c r="T231" s="5"/>
+    </row>
+    <row r="232" spans="1:20">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L232" s="5"/>
+      <c r="T232" s="5"/>
+    </row>
+    <row r="233" spans="1:20">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L233" s="5"/>
+      <c r="T233" s="5"/>
+    </row>
+    <row r="234" spans="1:20">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L234" s="5"/>
+      <c r="T234" s="5"/>
+    </row>
+    <row r="235" spans="1:20">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L235" s="5"/>
+      <c r="T235" s="5"/>
+    </row>
+    <row r="236" spans="1:20">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L236" s="5"/>
+      <c r="T236" s="5"/>
+    </row>
+    <row r="237" spans="1:20">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L237" s="5"/>
+      <c r="T237" s="5"/>
+    </row>
+    <row r="238" spans="1:20">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L238" s="5"/>
+      <c r="T238" s="5"/>
+    </row>
+    <row r="239" spans="1:20">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L239" s="5"/>
+      <c r="T239" s="5"/>
+    </row>
+    <row r="240" spans="1:20">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L240" s="5"/>
+      <c r="T240" s="5"/>
+    </row>
+    <row r="241" spans="1:20">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L241" s="5"/>
+      <c r="T241" s="5"/>
+    </row>
+    <row r="242" spans="1:20">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242" s="5"/>
+      <c r="T242" s="5"/>
+    </row>
+    <row r="243" spans="1:20">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L243" s="5"/>
+      <c r="T243" s="5"/>
+    </row>
+    <row r="244" spans="1:20">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L244" s="5"/>
+      <c r="T244" s="5"/>
+    </row>
+    <row r="245" spans="1:20">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L245" s="5"/>
+      <c r="T245" s="5"/>
+    </row>
+    <row r="246" spans="1:20">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L246" s="5"/>
+      <c r="T246" s="5"/>
+    </row>
+    <row r="247" spans="1:20">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L247" s="5"/>
+      <c r="T247" s="5"/>
+    </row>
+    <row r="248" spans="1:20">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L248" s="5"/>
+      <c r="T248" s="5"/>
+    </row>
+    <row r="249" spans="1:20">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L249" s="5"/>
+      <c r="T249" s="5"/>
+    </row>
+    <row r="250" spans="1:20">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L250" s="5"/>
+      <c r="T250" s="5"/>
+    </row>
+    <row r="251" spans="1:20">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L251" s="5"/>
+      <c r="T251" s="5"/>
+    </row>
+    <row r="252" spans="1:20">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L252" s="5"/>
+      <c r="T252" s="5"/>
+    </row>
+    <row r="253" spans="1:20">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L253" s="5"/>
+      <c r="T253" s="5"/>
+    </row>
+    <row r="254" spans="1:20">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L254" s="5"/>
+      <c r="T254" s="5"/>
+    </row>
+    <row r="255" spans="1:20">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L255" s="5"/>
+      <c r="T255" s="5"/>
+    </row>
+    <row r="256" spans="1:20">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L256" s="5"/>
+      <c r="T256" s="5"/>
+    </row>
+    <row r="257" spans="1:20">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L257" s="5"/>
+      <c r="T257" s="5"/>
+    </row>
+    <row r="258" spans="1:20">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L258" s="5"/>
+      <c r="T258" s="5"/>
+    </row>
+    <row r="259" spans="1:20">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L259" s="5"/>
+      <c r="T259" s="5"/>
+    </row>
+    <row r="260" spans="1:20">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L260" s="5"/>
+      <c r="T260" s="5"/>
+    </row>
+    <row r="261" spans="1:20">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L261" s="5"/>
+      <c r="T261" s="5"/>
+    </row>
+    <row r="262" spans="1:20">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L262" s="5"/>
+      <c r="T262" s="5"/>
+    </row>
+    <row r="263" spans="1:20">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L263" s="5"/>
+      <c r="T263" s="5"/>
+    </row>
+    <row r="264" spans="1:20">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L264" s="5"/>
+      <c r="T264" s="5"/>
+    </row>
+    <row r="265" spans="1:20">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L265" s="5"/>
+      <c r="T265" s="5"/>
+    </row>
+    <row r="266" spans="1:20">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L266" s="5"/>
+      <c r="T266" s="5"/>
+    </row>
+    <row r="267" spans="1:20">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L267" s="5"/>
+      <c r="T267" s="5"/>
+    </row>
+    <row r="268" spans="1:20">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L268" s="5"/>
+      <c r="T268" s="5"/>
+    </row>
+    <row r="269" spans="1:20">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L269" s="5"/>
+      <c r="T269" s="5"/>
+    </row>
+    <row r="270" spans="1:20">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L270" s="5"/>
+      <c r="T270" s="5"/>
+    </row>
+    <row r="271" spans="1:20">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L271" s="5"/>
+      <c r="T271" s="5"/>
+    </row>
+    <row r="272" spans="1:20">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L272" s="5"/>
+      <c r="T272" s="5"/>
+    </row>
+    <row r="273" spans="1:20">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L273" s="5"/>
+      <c r="T273" s="5"/>
+    </row>
+    <row r="274" spans="1:20">
+      <c r="A274" s="4"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="9"/>
+      <c r="L274" s="10"/>
+      <c r="T274" s="5"/>
+    </row>
+    <row r="275" spans="1:20">
+      <c r="A275" s="4"/>
+      <c r="T275" s="5"/>
+    </row>
+    <row r="276" spans="1:20">
+      <c r="A276" s="4"/>
+      <c r="T276" s="5"/>
+    </row>
+    <row r="277" spans="1:20">
+      <c r="A277" s="4"/>
+      <c r="T277" s="5"/>
+    </row>
+    <row r="278" spans="1:20">
+      <c r="A278" s="4"/>
+      <c r="T278" s="5"/>
+    </row>
+    <row r="279" spans="1:20">
+      <c r="A279" s="4"/>
+      <c r="T279" s="5"/>
+    </row>
+    <row r="280" spans="1:20">
+      <c r="A280" s="4"/>
+      <c r="T280" s="5"/>
+    </row>
+    <row r="281" spans="1:20">
+      <c r="A281" s="4"/>
+      <c r="T281" s="5"/>
+    </row>
+    <row r="282" spans="1:20">
+      <c r="A282" s="4"/>
+      <c r="T282" s="5"/>
+    </row>
+    <row r="283" spans="1:20">
+      <c r="A283" s="4"/>
+      <c r="T283" s="5"/>
+    </row>
+    <row r="284" spans="1:20">
+      <c r="A284" s="4"/>
+      <c r="T284" s="5"/>
+    </row>
+    <row r="285" spans="1:20">
+      <c r="A285" s="4"/>
+      <c r="T285" s="5"/>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" s="4"/>
+      <c r="T286" s="5"/>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="A287" s="4"/>
+      <c r="T287" s="5"/>
+    </row>
+    <row r="288" spans="1:20">
+      <c r="A288" s="4"/>
+      <c r="T288" s="5"/>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" s="4"/>
+      <c r="T289" s="5"/>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" s="8"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
+      <c r="I290" s="9"/>
+      <c r="J290" s="9"/>
+      <c r="K290" s="9"/>
+      <c r="L290" s="9"/>
+      <c r="M290" s="9"/>
+      <c r="N290" s="9"/>
+      <c r="O290" s="9"/>
+      <c r="P290" s="9"/>
+      <c r="Q290" s="9"/>
+      <c r="R290" s="9"/>
+      <c r="S290" s="9"/>
+      <c r="T290" s="10"/>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="B293" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
+      <c r="N293" s="2"/>
+      <c r="O293" s="2"/>
+      <c r="P293" s="2"/>
+      <c r="Q293" s="2"/>
+      <c r="R293" s="3"/>
+    </row>
+    <row r="294" spans="1:20">
+      <c r="B294" s="4"/>
+      <c r="R294" s="5"/>
+    </row>
+    <row r="295" spans="1:20">
+      <c r="B295" s="4"/>
+      <c r="R295" s="5"/>
+    </row>
+    <row r="296" spans="1:20">
+      <c r="B296" s="4"/>
+      <c r="R296" s="5"/>
+    </row>
+    <row r="297" spans="1:20">
+      <c r="B297" s="4"/>
+      <c r="R297" s="5"/>
+    </row>
+    <row r="298" spans="1:20">
+      <c r="B298" s="4"/>
+      <c r="R298" s="5"/>
+    </row>
+    <row r="299" spans="1:20">
+      <c r="B299" s="4"/>
+      <c r="R299" s="5"/>
+    </row>
+    <row r="300" spans="1:20">
+      <c r="B300" s="4"/>
+      <c r="R300" s="5"/>
+    </row>
+    <row r="301" spans="1:20">
+      <c r="B301" s="4"/>
+      <c r="R301" s="5"/>
+    </row>
+    <row r="302" spans="1:20">
+      <c r="B302" s="4"/>
+      <c r="R302" s="5"/>
+    </row>
+    <row r="303" spans="1:20">
+      <c r="B303" s="4"/>
+      <c r="R303" s="5"/>
+    </row>
+    <row r="304" spans="1:20">
+      <c r="B304" s="4"/>
+      <c r="R304" s="5"/>
+    </row>
+    <row r="305" spans="2:18">
+      <c r="B305" s="4"/>
+      <c r="R305" s="5"/>
+    </row>
+    <row r="306" spans="2:18">
+      <c r="B306" s="4"/>
+      <c r="R306" s="5"/>
+    </row>
+    <row r="307" spans="2:18">
+      <c r="B307" s="4"/>
+      <c r="R307" s="5"/>
+    </row>
+    <row r="308" spans="2:18">
+      <c r="B308" s="4"/>
+      <c r="R308" s="5"/>
+    </row>
+    <row r="309" spans="2:18">
+      <c r="B309" s="4"/>
+      <c r="R309" s="5"/>
+    </row>
+    <row r="310" spans="2:18">
+      <c r="B310" s="4"/>
+      <c r="R310" s="5"/>
+    </row>
+    <row r="311" spans="2:18">
+      <c r="B311" s="4"/>
+      <c r="R311" s="5"/>
+    </row>
+    <row r="312" spans="2:18">
+      <c r="B312" s="4"/>
+      <c r="R312" s="5"/>
+    </row>
+    <row r="313" spans="2:18">
+      <c r="B313" s="4"/>
+      <c r="R313" s="5"/>
+    </row>
+    <row r="314" spans="2:18">
+      <c r="B314" s="4"/>
+      <c r="R314" s="5"/>
+    </row>
+    <row r="315" spans="2:18">
+      <c r="B315" s="8"/>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="9"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="9"/>
+      <c r="L315" s="9"/>
+      <c r="M315" s="9"/>
+      <c r="N315" s="9"/>
+      <c r="O315" s="9"/>
+      <c r="P315" s="9"/>
+      <c r="Q315" s="9"/>
+      <c r="R315" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDC17F0-9406-410B-85D2-E06E6AD3127B}">
+  <dimension ref="A3:T318"/>
+  <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C319" sqref="C319"/>
+      <selection activeCell="U317" sqref="U317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8221,7 +10732,7 @@
     <row r="57" spans="1:20">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -8484,7 +10995,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="4"/>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C68" s="16"/>
@@ -8628,11 +11139,11 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="4"/>
-      <c r="B74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="B74" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -8652,9 +11163,11 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="B75" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -8674,11 +11187,11 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="B76" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -8698,11 +11211,11 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="B77" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
@@ -8722,11 +11235,11 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="4"/>
-      <c r="B78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="B78" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -8746,7 +11259,9 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -8768,9 +11283,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="4"/>
-      <c r="B80" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B80" s="4"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -8793,7 +11306,7 @@
     <row r="81" spans="1:20">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -8817,7 +11330,7 @@
     <row r="82" spans="1:20">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -8840,7 +11353,9 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -8862,9 +11377,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="4"/>
-      <c r="B84" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="B84" s="4"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -8887,7 +11400,7 @@
     <row r="85" spans="1:20">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -8911,7 +11424,7 @@
     <row r="86" spans="1:20">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -8934,7 +11447,9 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -8956,9 +11471,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="4"/>
-      <c r="B88" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B88" s="4"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -8981,7 +11494,7 @@
     <row r="89" spans="1:20">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -9005,7 +11518,7 @@
     <row r="90" spans="1:20">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -9028,7 +11541,9 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -9050,9 +11565,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="4"/>
-      <c r="B92" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B92" s="4"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -9074,15 +11587,17 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="4"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="10"/>
+      <c r="B93" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
@@ -9096,7 +11611,9 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="4"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -9104,7 +11621,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
@@ -9118,7 +11635,9 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="4"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -9126,7 +11645,7 @@
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
@@ -9140,7 +11659,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="4"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="4"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -9148,7 +11667,7 @@
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
       <c r="M96" s="16"/>
@@ -9162,7 +11681,9 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="4"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -9170,7 +11691,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
@@ -9184,15 +11705,15 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="4"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="10"/>
       <c r="K98" s="16"/>
       <c r="L98" s="16"/>
       <c r="M98" s="16"/>
@@ -9825,10 +12346,10 @@
     <row r="128" spans="1:20">
       <c r="A128" s="4"/>
       <c r="B128" s="11" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="C128" s="17"/>
-      <c r="D128" s="16"/>
+      <c r="D128" s="17"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -9849,10 +12370,10 @@
     <row r="129" spans="1:20">
       <c r="A129" s="4"/>
       <c r="B129" s="14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C129" s="17"/>
-      <c r="D129" s="16"/>
+      <c r="D129" s="17"/>
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -9873,10 +12394,10 @@
     <row r="130" spans="1:20">
       <c r="A130" s="4"/>
       <c r="B130" s="14" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="C130" s="17"/>
-      <c r="D130" s="16"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -9897,7 +12418,7 @@
     <row r="131" spans="1:20">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
@@ -9921,7 +12442,7 @@
     <row r="132" spans="1:20">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
@@ -9945,7 +12466,7 @@
     <row r="133" spans="1:20">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
@@ -9969,7 +12490,7 @@
     <row r="134" spans="1:20">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
@@ -9993,7 +12514,7 @@
     <row r="135" spans="1:20">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
@@ -10017,7 +12538,7 @@
     <row r="136" spans="1:20">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -10041,7 +12562,7 @@
     <row r="137" spans="1:20">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -10064,7 +12585,9 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -10087,7 +12610,7 @@
     <row r="139" spans="1:20">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -10110,9 +12633,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="4"/>
-      <c r="B140" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B140" s="4"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -10135,7 +12656,7 @@
     <row r="141" spans="1:20">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -10159,7 +12680,7 @@
     <row r="142" spans="1:20">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -10183,7 +12704,7 @@
     <row r="143" spans="1:20">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -10207,7 +12728,7 @@
     <row r="144" spans="1:20">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
@@ -10231,7 +12752,7 @@
     <row r="145" spans="1:20">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
@@ -10255,7 +12776,7 @@
     <row r="146" spans="1:20">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
@@ -10279,7 +12800,7 @@
     <row r="147" spans="1:20">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
@@ -10303,7 +12824,7 @@
     <row r="148" spans="1:20">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
@@ -10326,7 +12847,9 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
@@ -10349,7 +12872,7 @@
     <row r="150" spans="1:20">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
@@ -10372,9 +12895,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="4"/>
-      <c r="B151" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B151" s="4"/>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -10397,7 +12918,7 @@
     <row r="152" spans="1:20">
       <c r="A152" s="4"/>
       <c r="B152" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
@@ -10420,7 +12941,9 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
+      <c r="B153" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
@@ -10443,7 +12966,7 @@
     <row r="154" spans="1:20">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
@@ -10466,9 +12989,7 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="4"/>
-      <c r="B155" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="B155" s="4"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -10491,7 +13012,7 @@
     <row r="156" spans="1:20">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
@@ -10539,7 +13060,7 @@
     <row r="158" spans="1:20">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -10587,7 +13108,7 @@
     <row r="160" spans="1:20">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
@@ -10635,7 +13156,7 @@
     <row r="162" spans="1:20">
       <c r="A162" s="4"/>
       <c r="B162" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -10659,7 +13180,7 @@
     <row r="163" spans="1:20">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -10683,7 +13204,7 @@
     <row r="164" spans="1:20">
       <c r="A164" s="4"/>
       <c r="B164" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -10707,7 +13228,7 @@
     <row r="165" spans="1:20">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -10731,7 +13252,7 @@
     <row r="166" spans="1:20">
       <c r="A166" s="4"/>
       <c r="B166" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
@@ -10755,7 +13276,7 @@
     <row r="167" spans="1:20">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
@@ -10779,7 +13300,7 @@
     <row r="168" spans="1:20">
       <c r="A168" s="4"/>
       <c r="B168" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
@@ -10802,7 +13323,9 @@
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
@@ -10825,7 +13348,7 @@
     <row r="170" spans="1:20">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -10848,9 +13371,7 @@
     </row>
     <row r="171" spans="1:20">
       <c r="A171" s="4"/>
-      <c r="B171" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B171" s="4"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
@@ -10873,7 +13394,7 @@
     <row r="172" spans="1:20">
       <c r="A172" s="4"/>
       <c r="B172" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -10897,7 +13418,7 @@
     <row r="173" spans="1:20">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
@@ -10921,7 +13442,7 @@
     <row r="174" spans="1:20">
       <c r="A174" s="4"/>
       <c r="B174" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
@@ -10945,7 +13466,7 @@
     <row r="175" spans="1:20">
       <c r="A175" s="4"/>
       <c r="B175" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
@@ -10969,7 +13490,7 @@
     <row r="176" spans="1:20">
       <c r="A176" s="4"/>
       <c r="B176" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
@@ -10993,7 +13514,7 @@
     <row r="177" spans="1:20">
       <c r="A177" s="4"/>
       <c r="B177" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
@@ -11017,7 +13538,7 @@
     <row r="178" spans="1:20">
       <c r="A178" s="4"/>
       <c r="B178" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
@@ -11040,7 +13561,9 @@
     </row>
     <row r="179" spans="1:20">
       <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -11063,7 +13586,7 @@
     <row r="180" spans="1:20">
       <c r="A180" s="4"/>
       <c r="B180" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -11086,9 +13609,7 @@
     </row>
     <row r="181" spans="1:20">
       <c r="A181" s="4"/>
-      <c r="B181" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="B181" s="4"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -11111,7 +13632,7 @@
     <row r="182" spans="1:20">
       <c r="A182" s="4"/>
       <c r="B182" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
@@ -11135,7 +13656,7 @@
     <row r="183" spans="1:20">
       <c r="A183" s="4"/>
       <c r="B183" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
@@ -11159,7 +13680,7 @@
     <row r="184" spans="1:20">
       <c r="A184" s="4"/>
       <c r="B184" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
@@ -11183,7 +13704,7 @@
     <row r="185" spans="1:20">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -11207,7 +13728,7 @@
     <row r="186" spans="1:20">
       <c r="A186" s="4"/>
       <c r="B186" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
@@ -11231,7 +13752,7 @@
     <row r="187" spans="1:20">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
@@ -11255,7 +13776,7 @@
     <row r="188" spans="1:20">
       <c r="A188" s="4"/>
       <c r="B188" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
@@ -11279,7 +13800,7 @@
     <row r="189" spans="1:20">
       <c r="A189" s="4"/>
       <c r="B189" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
@@ -11303,7 +13824,7 @@
     <row r="190" spans="1:20">
       <c r="A190" s="4"/>
       <c r="B190" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
@@ -11327,7 +13848,7 @@
     <row r="191" spans="1:20">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
@@ -11351,7 +13872,7 @@
     <row r="192" spans="1:20">
       <c r="A192" s="4"/>
       <c r="B192" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -11375,7 +13896,7 @@
     <row r="193" spans="1:20">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
@@ -11399,7 +13920,7 @@
     <row r="194" spans="1:20">
       <c r="A194" s="4"/>
       <c r="B194" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
@@ -11423,7 +13944,7 @@
     <row r="195" spans="1:20">
       <c r="A195" s="4"/>
       <c r="B195" s="4" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
@@ -11447,7 +13968,7 @@
     <row r="196" spans="1:20">
       <c r="A196" s="4"/>
       <c r="B196" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
@@ -11471,7 +13992,7 @@
     <row r="197" spans="1:20">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
@@ -11495,7 +14016,7 @@
     <row r="198" spans="1:20">
       <c r="A198" s="4"/>
       <c r="B198" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
@@ -11519,7 +14040,7 @@
     <row r="199" spans="1:20">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
@@ -11543,7 +14064,7 @@
     <row r="200" spans="1:20">
       <c r="A200" s="4"/>
       <c r="B200" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -11567,7 +14088,7 @@
     <row r="201" spans="1:20">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
@@ -11591,7 +14112,7 @@
     <row r="202" spans="1:20">
       <c r="A202" s="4"/>
       <c r="B202" s="4" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
@@ -11615,7 +14136,7 @@
     <row r="203" spans="1:20">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
@@ -11639,7 +14160,7 @@
     <row r="204" spans="1:20">
       <c r="A204" s="4"/>
       <c r="B204" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
@@ -11663,7 +14184,7 @@
     <row r="205" spans="1:20">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
@@ -11687,7 +14208,7 @@
     <row r="206" spans="1:20">
       <c r="A206" s="4"/>
       <c r="B206" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
@@ -11711,7 +14232,7 @@
     <row r="207" spans="1:20">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
@@ -11735,7 +14256,7 @@
     <row r="208" spans="1:20">
       <c r="A208" s="4"/>
       <c r="B208" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
@@ -11759,7 +14280,7 @@
     <row r="209" spans="1:20">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
@@ -11783,7 +14304,7 @@
     <row r="210" spans="1:20">
       <c r="A210" s="4"/>
       <c r="B210" s="4" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
@@ -11807,7 +14328,7 @@
     <row r="211" spans="1:20">
       <c r="A211" s="4"/>
       <c r="B211" s="4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
@@ -11831,7 +14352,7 @@
     <row r="212" spans="1:20">
       <c r="A212" s="4"/>
       <c r="B212" s="4" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
@@ -11855,7 +14376,7 @@
     <row r="213" spans="1:20">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
@@ -11879,7 +14400,7 @@
     <row r="214" spans="1:20">
       <c r="A214" s="4"/>
       <c r="B214" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
@@ -11903,7 +14424,7 @@
     <row r="215" spans="1:20">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
@@ -11927,7 +14448,7 @@
     <row r="216" spans="1:20">
       <c r="A216" s="4"/>
       <c r="B216" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
@@ -11975,7 +14496,7 @@
     <row r="218" spans="1:20">
       <c r="A218" s="4"/>
       <c r="B218" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
@@ -11999,7 +14520,7 @@
     <row r="219" spans="1:20">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
@@ -12023,7 +14544,7 @@
     <row r="220" spans="1:20">
       <c r="A220" s="4"/>
       <c r="B220" s="4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
@@ -12047,7 +14568,7 @@
     <row r="221" spans="1:20">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -12071,7 +14592,7 @@
     <row r="222" spans="1:20">
       <c r="A222" s="4"/>
       <c r="B222" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -12095,7 +14616,7 @@
     <row r="223" spans="1:20">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -12119,7 +14640,7 @@
     <row r="224" spans="1:20">
       <c r="A224" s="4"/>
       <c r="B224" s="4" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
@@ -12143,7 +14664,7 @@
     <row r="225" spans="1:20">
       <c r="A225" s="4"/>
       <c r="B225" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
@@ -12167,7 +14688,7 @@
     <row r="226" spans="1:20">
       <c r="A226" s="4"/>
       <c r="B226" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
@@ -12191,7 +14712,7 @@
     <row r="227" spans="1:20">
       <c r="A227" s="4"/>
       <c r="B227" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
@@ -12215,7 +14736,7 @@
     <row r="228" spans="1:20">
       <c r="A228" s="4"/>
       <c r="B228" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
@@ -12239,7 +14760,7 @@
     <row r="229" spans="1:20">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
@@ -12263,7 +14784,7 @@
     <row r="230" spans="1:20">
       <c r="A230" s="4"/>
       <c r="B230" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
@@ -12287,7 +14808,7 @@
     <row r="231" spans="1:20">
       <c r="A231" s="4"/>
       <c r="B231" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
@@ -12311,7 +14832,7 @@
     <row r="232" spans="1:20">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
@@ -12335,7 +14856,7 @@
     <row r="233" spans="1:20">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
@@ -12359,7 +14880,7 @@
     <row r="234" spans="1:20">
       <c r="A234" s="4"/>
       <c r="B234" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
@@ -12383,7 +14904,7 @@
     <row r="235" spans="1:20">
       <c r="A235" s="4"/>
       <c r="B235" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
@@ -12407,7 +14928,7 @@
     <row r="236" spans="1:20">
       <c r="A236" s="4"/>
       <c r="B236" s="4" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
@@ -12431,7 +14952,7 @@
     <row r="237" spans="1:20">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
@@ -12455,7 +14976,7 @@
     <row r="238" spans="1:20">
       <c r="A238" s="4"/>
       <c r="B238" s="4" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
@@ -12479,7 +15000,7 @@
     <row r="239" spans="1:20">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
@@ -12503,7 +15024,7 @@
     <row r="240" spans="1:20">
       <c r="A240" s="4"/>
       <c r="B240" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
@@ -12527,7 +15048,7 @@
     <row r="241" spans="1:20">
       <c r="A241" s="4"/>
       <c r="B241" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
@@ -12551,7 +15072,7 @@
     <row r="242" spans="1:20">
       <c r="A242" s="4"/>
       <c r="B242" s="4" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
@@ -12575,7 +15096,7 @@
     <row r="243" spans="1:20">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
@@ -12599,7 +15120,7 @@
     <row r="244" spans="1:20">
       <c r="A244" s="4"/>
       <c r="B244" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
@@ -12623,7 +15144,7 @@
     <row r="245" spans="1:20">
       <c r="A245" s="4"/>
       <c r="B245" s="4" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
@@ -12647,7 +15168,7 @@
     <row r="246" spans="1:20">
       <c r="A246" s="4"/>
       <c r="B246" s="4" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
@@ -12671,7 +15192,7 @@
     <row r="247" spans="1:20">
       <c r="A247" s="4"/>
       <c r="B247" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
@@ -12695,7 +15216,7 @@
     <row r="248" spans="1:20">
       <c r="A248" s="4"/>
       <c r="B248" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
@@ -12719,7 +15240,7 @@
     <row r="249" spans="1:20">
       <c r="A249" s="4"/>
       <c r="B249" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
@@ -12743,7 +15264,7 @@
     <row r="250" spans="1:20">
       <c r="A250" s="4"/>
       <c r="B250" s="4" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
@@ -12767,7 +15288,7 @@
     <row r="251" spans="1:20">
       <c r="A251" s="4"/>
       <c r="B251" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
@@ -12791,7 +15312,7 @@
     <row r="252" spans="1:20">
       <c r="A252" s="4"/>
       <c r="B252" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
@@ -12815,7 +15336,7 @@
     <row r="253" spans="1:20">
       <c r="A253" s="4"/>
       <c r="B253" s="4" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
@@ -12839,7 +15360,7 @@
     <row r="254" spans="1:20">
       <c r="A254" s="4"/>
       <c r="B254" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
@@ -12863,7 +15384,7 @@
     <row r="255" spans="1:20">
       <c r="A255" s="4"/>
       <c r="B255" s="4" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
@@ -12887,7 +15408,7 @@
     <row r="256" spans="1:20">
       <c r="A256" s="4"/>
       <c r="B256" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
@@ -12911,7 +15432,7 @@
     <row r="257" spans="1:20">
       <c r="A257" s="4"/>
       <c r="B257" s="4" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
@@ -12935,7 +15456,7 @@
     <row r="258" spans="1:20">
       <c r="A258" s="4"/>
       <c r="B258" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
@@ -12959,7 +15480,7 @@
     <row r="259" spans="1:20">
       <c r="A259" s="4"/>
       <c r="B259" s="4" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
@@ -12983,7 +15504,7 @@
     <row r="260" spans="1:20">
       <c r="A260" s="4"/>
       <c r="B260" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
@@ -13007,7 +15528,7 @@
     <row r="261" spans="1:20">
       <c r="A261" s="4"/>
       <c r="B261" s="4" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
@@ -13031,7 +15552,7 @@
     <row r="262" spans="1:20">
       <c r="A262" s="4"/>
       <c r="B262" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
@@ -13055,7 +15576,7 @@
     <row r="263" spans="1:20">
       <c r="A263" s="4"/>
       <c r="B263" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
@@ -13079,7 +15600,7 @@
     <row r="264" spans="1:20">
       <c r="A264" s="4"/>
       <c r="B264" s="4" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
@@ -13103,7 +15624,7 @@
     <row r="265" spans="1:20">
       <c r="A265" s="4"/>
       <c r="B265" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
@@ -13151,7 +15672,7 @@
     <row r="267" spans="1:20">
       <c r="A267" s="4"/>
       <c r="B267" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
@@ -13175,7 +15696,7 @@
     <row r="268" spans="1:20">
       <c r="A268" s="4"/>
       <c r="B268" s="4" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
@@ -13199,7 +15720,7 @@
     <row r="269" spans="1:20">
       <c r="A269" s="4"/>
       <c r="B269" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
@@ -13223,7 +15744,7 @@
     <row r="270" spans="1:20">
       <c r="A270" s="4"/>
       <c r="B270" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
@@ -13247,7 +15768,7 @@
     <row r="271" spans="1:20">
       <c r="A271" s="4"/>
       <c r="B271" s="4" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
@@ -13271,7 +15792,7 @@
     <row r="272" spans="1:20">
       <c r="A272" s="4"/>
       <c r="B272" s="4" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
@@ -13295,7 +15816,7 @@
     <row r="273" spans="1:20">
       <c r="A273" s="4"/>
       <c r="B273" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
@@ -13318,17 +15839,19 @@
     </row>
     <row r="274" spans="1:20">
       <c r="A274" s="4"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9"/>
-      <c r="E274" s="9"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
-      <c r="H274" s="9"/>
-      <c r="I274" s="9"/>
-      <c r="J274" s="9"/>
-      <c r="K274" s="9"/>
-      <c r="L274" s="10"/>
+      <c r="B274" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C274" s="16"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="16"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="16"/>
+      <c r="H274" s="16"/>
+      <c r="I274" s="16"/>
+      <c r="J274" s="16"/>
+      <c r="K274" s="16"/>
+      <c r="L274" s="5"/>
       <c r="M274" s="16"/>
       <c r="N274" s="16"/>
       <c r="O274" s="16"/>
@@ -13340,7 +15863,9 @@
     </row>
     <row r="275" spans="1:20">
       <c r="A275" s="4"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
@@ -13350,7 +15875,7 @@
       <c r="I275" s="16"/>
       <c r="J275" s="16"/>
       <c r="K275" s="16"/>
-      <c r="L275" s="16"/>
+      <c r="L275" s="5"/>
       <c r="M275" s="16"/>
       <c r="N275" s="16"/>
       <c r="O275" s="16"/>
@@ -13362,17 +15887,17 @@
     </row>
     <row r="276" spans="1:20">
       <c r="A276" s="4"/>
-      <c r="B276" s="16"/>
-      <c r="C276" s="16"/>
-      <c r="D276" s="16"/>
-      <c r="E276" s="16"/>
-      <c r="F276" s="16"/>
-      <c r="G276" s="16"/>
-      <c r="H276" s="16"/>
-      <c r="I276" s="16"/>
-      <c r="J276" s="16"/>
-      <c r="K276" s="16"/>
-      <c r="L276" s="16"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
+      <c r="L276" s="10"/>
       <c r="M276" s="16"/>
       <c r="N276" s="16"/>
       <c r="O276" s="16"/>
@@ -14111,23 +16636,80 @@
       <c r="R314" s="5"/>
     </row>
     <row r="315" spans="2:18">
-      <c r="B315" s="8"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="9"/>
-      <c r="E315" s="9"/>
-      <c r="F315" s="9"/>
-      <c r="G315" s="9"/>
-      <c r="H315" s="9"/>
-      <c r="I315" s="9"/>
-      <c r="J315" s="9"/>
-      <c r="K315" s="9"/>
-      <c r="L315" s="9"/>
-      <c r="M315" s="9"/>
-      <c r="N315" s="9"/>
-      <c r="O315" s="9"/>
-      <c r="P315" s="9"/>
-      <c r="Q315" s="9"/>
-      <c r="R315" s="10"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="16"/>
+      <c r="J315" s="16"/>
+      <c r="K315" s="16"/>
+      <c r="L315" s="16"/>
+      <c r="M315" s="16"/>
+      <c r="N315" s="16"/>
+      <c r="O315" s="16"/>
+      <c r="P315" s="16"/>
+      <c r="Q315" s="16"/>
+      <c r="R315" s="5"/>
+    </row>
+    <row r="316" spans="2:18">
+      <c r="B316" s="4"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="16"/>
+      <c r="E316" s="16"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+      <c r="H316" s="16"/>
+      <c r="I316" s="16"/>
+      <c r="J316" s="16"/>
+      <c r="K316" s="16"/>
+      <c r="L316" s="16"/>
+      <c r="M316" s="16"/>
+      <c r="N316" s="16"/>
+      <c r="O316" s="16"/>
+      <c r="P316" s="16"/>
+      <c r="Q316" s="16"/>
+      <c r="R316" s="5"/>
+    </row>
+    <row r="317" spans="2:18">
+      <c r="B317" s="4"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="16"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="16"/>
+      <c r="I317" s="16"/>
+      <c r="J317" s="16"/>
+      <c r="K317" s="16"/>
+      <c r="L317" s="16"/>
+      <c r="M317" s="16"/>
+      <c r="N317" s="16"/>
+      <c r="O317" s="16"/>
+      <c r="P317" s="16"/>
+      <c r="Q317" s="16"/>
+      <c r="R317" s="5"/>
+    </row>
+    <row r="318" spans="2:18">
+      <c r="B318" s="8"/>
+      <c r="C318" s="9"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="9"/>
+      <c r="K318" s="9"/>
+      <c r="L318" s="9"/>
+      <c r="M318" s="9"/>
+      <c r="N318" s="9"/>
+      <c r="O318" s="9"/>
+      <c r="P318" s="9"/>
+      <c r="Q318" s="9"/>
+      <c r="R318" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
